--- a/railcom debug scope traces.xlsx
+++ b/railcom debug scope traces.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Documents\Arduino\DCC_ESP_Controller_wRailcom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F56B09-9DC5-4B88-AB09-DC0BD6176C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A3F1F9-565F-4F37-94F3-9C6227BB1030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="L298 problem" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="139">
   <si>
     <t>The cutout is occuring at the end of the idle packet</t>
   </si>
@@ -121,19 +122,345 @@
   </si>
   <si>
     <t>a high lead-in and a low lead-out</t>
+  </si>
+  <si>
+    <t>With the L298 we have a problem.  Values on one polarity read ok (well mostly) and on the other polarity they read differently.</t>
+  </si>
+  <si>
+    <t>e.g. CV8 should read 151 but reads as 134 consistently on the opposite polarity.</t>
+  </si>
+  <si>
+    <t>And yet the scope traces seem to be the same.</t>
+  </si>
+  <si>
+    <t>This is the 'good' orientation</t>
+  </si>
+  <si>
+    <t>500kSS and 200uS/div</t>
+  </si>
+  <si>
+    <t>rise time is about 1.7uS and this is a function of the 400R pullup.</t>
+  </si>
+  <si>
+    <t>A969 is correct, it decodes to 151d</t>
+  </si>
+  <si>
+    <t>This is the 'bad' orientation.</t>
+  </si>
+  <si>
+    <t>it reads as 130</t>
+  </si>
+  <si>
+    <t>Yet the picoscope is reading it as A969 which is what we expect.</t>
+  </si>
+  <si>
+    <t>The timing looks identical to me, rise times are the same.</t>
+  </si>
+  <si>
+    <t>From the controller perspective, nothing has changed, however the loco</t>
+  </si>
+  <si>
+    <t>would be the opposite polarity and therefore pulses might be negative going</t>
+  </si>
+  <si>
+    <t>vs say positive in the other orientation.</t>
+  </si>
+  <si>
+    <t>also means we are using a different half of the comparator.</t>
+  </si>
+  <si>
+    <t>To explore</t>
+  </si>
+  <si>
+    <t>1/ swap the LM319, perhaps its faulty part</t>
+  </si>
+  <si>
+    <t>2/ reduce the LED drive resistor to allow it to peak at a higher current</t>
+  </si>
+  <si>
+    <t>3/ build a PIC16F88 rs232 decode and re-code unit, i.e. see if that rs232 detector has a similar issue to the ESP.</t>
+  </si>
+  <si>
+    <t>4/ maybe the ESU decoder itself behaves differently in the two polarities</t>
+  </si>
+  <si>
+    <t>Same problem reading cv1.</t>
+  </si>
+  <si>
+    <t>I see ACA3 on the scope.  This decodes to 4d which is correct.</t>
+  </si>
+  <si>
+    <t>The ESP decodes it as zero, which is wrong.</t>
+  </si>
+  <si>
+    <t>ACA9</t>
+  </si>
+  <si>
+    <t>1010 1100 1010 0011</t>
+  </si>
+  <si>
+    <t>ACAC</t>
+  </si>
+  <si>
+    <t>1010 1100 1010 1100</t>
+  </si>
+  <si>
+    <t>decodes to 4d</t>
+  </si>
+  <si>
+    <t>decodes to 0</t>
+  </si>
+  <si>
+    <t>A969</t>
+  </si>
+  <si>
+    <t>1010 1001 0110 1001</t>
+  </si>
+  <si>
+    <t>d151</t>
+  </si>
+  <si>
+    <t>A9A9</t>
+  </si>
+  <si>
+    <t>1010 1001 1010 1001</t>
+  </si>
+  <si>
+    <t>d130</t>
+  </si>
+  <si>
+    <t>so is there a pattern?  That the software is reading the same first hex digit twice?  And why would it do so?</t>
+  </si>
+  <si>
+    <t>cv1</t>
+  </si>
+  <si>
+    <t>cv8</t>
+  </si>
+  <si>
+    <t>cv5</t>
+  </si>
+  <si>
+    <t>AAAC</t>
+  </si>
+  <si>
+    <t>AAAA</t>
+  </si>
+  <si>
+    <t>1010 1010 1010 1100</t>
+  </si>
+  <si>
+    <t>decodes to 64d</t>
+  </si>
+  <si>
+    <t>decodes to 65d</t>
+  </si>
+  <si>
+    <t>which is what we see.</t>
+  </si>
+  <si>
+    <t>But this is bonkers.  In one polarity the ESP serial port reads two bytes, in the other it sees the same byte twice.   But the controller is not at all aware of the track polarity.</t>
+  </si>
+  <si>
+    <t>1010 1010 1010 1010</t>
+  </si>
+  <si>
+    <t>cv53</t>
+  </si>
+  <si>
+    <t>A98E</t>
+  </si>
+  <si>
+    <t>1010 1001 1000 1110</t>
+  </si>
+  <si>
+    <t>d140</t>
+  </si>
+  <si>
+    <t>I THINK IT HAS PROBLEMS ALSO ON THE CORRECT POLARITY</t>
+  </si>
+  <si>
+    <t>yup e.g. cv5 It is reading zero, which means it is reading ACAC rather than AAAC</t>
+  </si>
+  <si>
+    <t>so implies a byte-order problem….or its entirely missing a byte.</t>
+  </si>
+  <si>
+    <t>e.g. instead of reading AAAC  AAAC  its reading AC miss AC</t>
+  </si>
+  <si>
+    <t>But is this just bad data in the buffer or a systemic problem with the serial port?</t>
+  </si>
+  <si>
+    <t>I thought the port was implemented in hardware.</t>
+  </si>
+  <si>
+    <t>BUT we are running an arduino stack.   As the cutoutActive flag showed, at the point we start processing the serial, we are no longer in the cutout.   We might be serving any other of the routines</t>
+  </si>
+  <si>
+    <t>including the webserver or websockets and these might add significant delay, meaning several cutouts may have been buffered into the serial port.</t>
+  </si>
+  <si>
+    <t>https://esp8266.ru/esp8266-uart-reg/</t>
+  </si>
+  <si>
+    <t>https://www.esp8266.com/viewtopic.php?f=13&amp;t=15610#google_vignette</t>
+  </si>
+  <si>
+    <t>direct control registers for serial</t>
+  </si>
+  <si>
+    <t>but don't go there….</t>
+  </si>
+  <si>
+    <t>Yes we read/discard serial all the time and this could have come from any number of locos.</t>
+  </si>
+  <si>
+    <t>at the point we want to initiate a read, the serial will lag this, but the sequence should be good in the sense the byte order is preserved.</t>
+  </si>
+  <si>
+    <t>5/ maybe my ESP board has a random problem (try a different board)</t>
+  </si>
+  <si>
+    <t>I don't understand why the same software behaves differently purely because the loco is facing the opposite way on the track.</t>
+  </si>
+  <si>
+    <t>So this tends to point to a hardware issue, i.e. comparator, because we'd be using the other half of the comparator pair.</t>
+  </si>
+  <si>
+    <t>But the scope would indicate the behaviour is the same, even the noise spikes at start of cutout are same, and the data asserts at the same 80uS point.</t>
+  </si>
+  <si>
+    <t>If I built a PI16F88 rig, and this correclty decodes on both polarities (as the scope does) then it will confirm it’s the ESP that's either failing to read the serial or is incorrectly processing it.</t>
+  </si>
+  <si>
+    <t>One more open-loop test.   Lets have the serial port continuously decode and send its payload over a websocket.</t>
+  </si>
+  <si>
+    <t>And my software does reset to seek-ID0 if any received byte is not a 4/8 code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TEST USING continuous decode</t>
+  </si>
+  <si>
+    <t>When working we see;</t>
+  </si>
+  <si>
+    <t>When not working we see;</t>
+  </si>
+  <si>
+    <t>{"type":"dccUI","cmd":"pom","action":"ok","success":true}</t>
+  </si>
+  <si>
+    <t>{"type":"railcom","b1":"ac","b2":"ac","payload":0,"flag":false}</t>
+  </si>
+  <si>
+    <t>{"type":"railcom","b1":"ac","b2":"a3","payload":4,"flag":false}</t>
+  </si>
+  <si>
+    <t>{"type":"railcom","b1":"a9","b2":"a9","payload":130,"flag":false}</t>
+  </si>
+  <si>
+    <t>{"type":"railcom","b1":"a9","b2":"69","payload":151,"flag":false}</t>
+  </si>
+  <si>
+    <t>but here we are missing the 3rd payload of 151</t>
+  </si>
+  <si>
+    <t>when working we see;</t>
+  </si>
+  <si>
+    <t>but there is a problem with cv28</t>
+  </si>
+  <si>
+    <t>{"type":"railcom","b1":"a9","b2":"ac","payload":128,"flag":false}</t>
+  </si>
+  <si>
+    <t>{"type":"railcom","b1":"ac","b2":"a9","payload":2,"flag":false}</t>
+  </si>
+  <si>
+    <t>2 is the correct value.</t>
+  </si>
+  <si>
+    <t>So does this mean the decoder is putting out nonsense?</t>
+  </si>
+  <si>
+    <t>Also with the L298 the p-p rail voltage is only 10v due to the 1.5v drops in the BJTs</t>
+  </si>
+  <si>
+    <t>why would the loco put out the wrong sequence, or put out a different sequence</t>
+  </si>
+  <si>
+    <t>on one track orientation vs another?</t>
+  </si>
+  <si>
+    <t>And the scope fails to pick up any of these repeat-byte transmissions.</t>
+  </si>
+  <si>
+    <t>it correctly displays waveforms in time, sync'd to the RC pulse.</t>
+  </si>
+  <si>
+    <t>And the data is always correct in these views irrespective of the loco orientation.</t>
+  </si>
+  <si>
+    <t>So its pointing toward there being a serial decode problem in the ESP itself.</t>
+  </si>
+  <si>
+    <t>it consistently reads 130,128,2</t>
+  </si>
+  <si>
+    <t>which makes zero sense to me.</t>
+  </si>
+  <si>
+    <t>{"type":"railcom","b1":"ac","b2":"aa","payload":1,"flag":false}</t>
+  </si>
+  <si>
+    <t>{"type":"railcom","b1":"aa","b2":"ac","payload":64,"flag":false}</t>
+  </si>
+  <si>
+    <t>CV5 is another problem cv when in the 'good' orientation</t>
+  </si>
+  <si>
+    <t>it should read 64, but we see here confusion over AA and AC</t>
+  </si>
+  <si>
+    <t>sequence is ACACACAAAAAC.   But this is not a case of AAACAAACAAAC being synced on the wrong byte, because there's no</t>
+  </si>
+  <si>
+    <t>string of 4 A's in the legit bytestream.  Why is the serial port seeing this?</t>
+  </si>
+  <si>
+    <t>{"type":"railcom","b1":"aa","b2":"aa","payload":65,"flag":false}</t>
+  </si>
+  <si>
+    <t>the correct value is 64.</t>
+  </si>
+  <si>
+    <t>Note: CV2 is set to 2 meaning ch1 is disabled as is auto-discovery</t>
+  </si>
+  <si>
+    <t>What if we test with the IBT2 external board?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,8 +483,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,6 +693,99 @@
         <a:xfrm>
           <a:off x="1219200" y="11239500"/>
           <a:ext cx="5401429" cy="3391373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>525395</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6619488E-AC1A-40BD-F2B4-790F4409CCC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1143000"/>
+          <a:ext cx="10888595" cy="3924848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>506343</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>162482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{427147D2-1298-D044-808F-E36A841DF599}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="5314950"/>
+          <a:ext cx="9545568" cy="3991532"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -638,83 +1062,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="11:11">
       <c r="K4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="11:11">
       <c r="K5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="11:11">
       <c r="K6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="11:11">
       <c r="K8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4">
       <c r="C18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4">
       <c r="C19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4">
       <c r="D20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4">
       <c r="C22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4">
       <c r="D23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:4">
       <c r="C25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:4">
       <c r="D26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:4">
       <c r="C28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:4">
       <c r="D29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:4">
       <c r="D30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6">
       <c r="C34" t="s">
         <v>13</v>
       </c>
@@ -722,7 +1146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -734,7 +1158,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -746,7 +1170,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -757,22 +1181,22 @@
         <v>450</v>
       </c>
     </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:15">
       <c r="C51" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:15">
       <c r="C52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:15">
       <c r="C53" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:15">
       <c r="C55" t="s">
         <v>24</v>
       </c>
@@ -787,7 +1211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:15">
       <c r="C56" t="s">
         <v>25</v>
       </c>
@@ -795,7 +1219,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:15">
       <c r="C57" t="s">
         <v>26</v>
       </c>
@@ -803,19 +1227,586 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:15">
       <c r="M63" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:15">
       <c r="M64" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="13:13">
       <c r="M66" t="s">
         <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806E9589-0392-458B-96C5-236224B1BB3F}">
+  <dimension ref="A2:U143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:21">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="U7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="U8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="U10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="U12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="21:21">
+      <c r="U31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="21:21">
+      <c r="U32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="21:21">
+      <c r="U34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="21:21">
+      <c r="U36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="21:21">
+      <c r="U38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="21:21">
+      <c r="U39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="21:21">
+      <c r="U40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="21:21">
+      <c r="U42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17">
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G65" t="s">
+        <v>59</v>
+      </c>
+      <c r="L65" t="s">
+        <v>69</v>
+      </c>
+      <c r="M65" t="s">
+        <v>61</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17">
+      <c r="C66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G66" t="s">
+        <v>60</v>
+      </c>
+      <c r="M66" t="s">
+        <v>64</v>
+      </c>
+      <c r="N66" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17">
+      <c r="C68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17">
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70" t="s">
+        <v>74</v>
+      </c>
+      <c r="L70" t="s">
+        <v>79</v>
+      </c>
+      <c r="M70" t="s">
+        <v>80</v>
+      </c>
+      <c r="N70" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17">
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" t="s">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s">
+        <v>75</v>
+      </c>
+      <c r="I71" t="s">
+        <v>76</v>
+      </c>
+      <c r="M71" t="s">
+        <v>64</v>
+      </c>
+      <c r="N71" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17">
+      <c r="C74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17">
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17">
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17">
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="J79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="B85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" t="s">
+        <v>92</v>
+      </c>
+      <c r="K87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="K88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="B90" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11">
+      <c r="B91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11">
+      <c r="B94" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="B95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="2:18">
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="2:18">
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="2:18">
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="2:18">
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="2:18">
+      <c r="B106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="2:18">
+      <c r="B107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="2:18">
+      <c r="J110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="2:18">
+      <c r="B112" t="s">
+        <v>107</v>
+      </c>
+      <c r="J112" t="s">
+        <v>114</v>
+      </c>
+      <c r="R112" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
+      <c r="R113" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
+      <c r="B114" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R114" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
+      <c r="A115" t="s">
+        <v>68</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R115" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
+      <c r="B116" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R116" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
+      <c r="B117" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
+      <c r="R118" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
+      <c r="A120" t="s">
+        <v>69</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
+      <c r="B121" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
+      <c r="B122" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
+      <c r="B123" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="B125" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
+      <c r="B126" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
+      <c r="B127" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="B128" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="J129" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="J131" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="J132" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="A135" t="s">
+        <v>70</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="B136" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="B137" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="B138" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="J139" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="J140" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="J141" s="2"/>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="B143" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/railcom debug scope traces.xlsx
+++ b/railcom debug scope traces.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Documents\Arduino\DCC_ESP_Controller_wRailcom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A3F1F9-565F-4F37-94F3-9C6227BB1030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4093C2ED-8716-42FF-BFC5-E10B9E86B760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="L298 problem" sheetId="2" r:id="rId2"/>
+    <sheet name="buffer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="165">
   <si>
     <t>The cutout is occuring at the end of the idle packet</t>
   </si>
@@ -443,6 +444,84 @@
   </si>
   <si>
     <t>What if we test with the IBT2 external board?</t>
+  </si>
+  <si>
+    <t>wrong output</t>
+  </si>
+  <si>
+    <t>0x82 = 130d is incorrect for cv8</t>
+  </si>
+  <si>
+    <t>0xDA is junk, not 4/8</t>
+  </si>
+  <si>
+    <t>0x97 is correct = 151d, d130=0x82</t>
+  </si>
+  <si>
+    <t>30030333030333000</t>
+  </si>
+  <si>
+    <t>am seeng</t>
+  </si>
+  <si>
+    <t>"type":"railcom","hex":"FCFCFC696969A969","payload":151,"flag":false,"b":105}</t>
+  </si>
+  <si>
+    <t>{"type":"railcom","hex":"6969A96944FCA969","payload":151,"flag":false,"b":105}</t>
+  </si>
+  <si>
+    <t>With correct polarity</t>
+  </si>
+  <si>
+    <t>0x97 = d151 correct</t>
+  </si>
+  <si>
+    <t>Generally the output starts 1.5mS after the good byte decode</t>
+  </si>
+  <si>
+    <t>i.e. its well outside of the RC cutout period.</t>
+  </si>
+  <si>
+    <t>We are running a 2MHz instruction clock.</t>
+  </si>
+  <si>
+    <t>with bad polarity</t>
+  </si>
+  <si>
+    <t>we read d134 or 148  which is 0x86 or 0x8A</t>
+  </si>
+  <si>
+    <t>yup decoder is putting out nonsense.</t>
+  </si>
+  <si>
+    <t>a99c will decode to 0x86</t>
+  </si>
+  <si>
+    <t>this is the following scope sample frame</t>
+  </si>
+  <si>
+    <t>but… it should not have triggered on FF93, maybe a bug.</t>
+  </si>
+  <si>
+    <t>we have 0x8A as the output, this is consistence with the A99C which we see</t>
+  </si>
+  <si>
+    <t>notably there are no 69 bytes in any of these frames.</t>
+  </si>
+  <si>
+    <t>200uS div and 300kSs</t>
+  </si>
+  <si>
+    <t>A99C</t>
+  </si>
+  <si>
+    <t>A993 keep appearing</t>
+  </si>
+  <si>
+    <t>yup so its either the decoder is at fault</t>
+  </si>
+  <si>
+    <t>or the comparator has a problem….</t>
   </si>
 </sst>
 </file>
@@ -483,12 +562,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,6 +880,363 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>382514</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{874895E2-BB30-A8B7-3DDF-AE9907AC6F48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="571500"/>
+          <a:ext cx="10850489" cy="2400635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>553563</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>143134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D10AD4C9-D1A8-16BA-DF86-D1780EC00CA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5524500"/>
+          <a:ext cx="7973538" cy="1857634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>582119</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>143098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F38E07-A2B0-50D9-566E-5469D4343089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="7496175"/>
+          <a:ext cx="7840169" cy="1600423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>334457</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>181186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{816062C0-44F5-6DA6-C1CC-C290253CD29F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9334500"/>
+          <a:ext cx="7754432" cy="1514686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8669F58F-D1E1-35CA-ACDA-7928258145D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11811000"/>
+          <a:ext cx="7715250" cy="1486107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>28792</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C25F698-24CE-3436-61C4-62E588B53A77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13525500"/>
+          <a:ext cx="7677150" cy="1552792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>582397</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>114529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{260A3287-1056-57D0-B36C-6164EACCC10E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="15430500"/>
+          <a:ext cx="9831172" cy="1638529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>144271</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>143081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F66C225-F542-03F4-BD6A-4957FC9DCD42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17335500"/>
+          <a:ext cx="10002646" cy="1476581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1252,7 +1692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806E9589-0392-458B-96C5-236224B1BB3F}">
   <dimension ref="A2:U143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
@@ -1813,4 +2253,154 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFDFF72-3A6E-47A3-A910-0EA87568521B}">
+  <dimension ref="B2:S94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="S94" sqref="S94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="L17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="L18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="H21" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="4">
+        <v>45617</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="P32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16">
+      <c r="P51" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16">
+      <c r="P52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16">
+      <c r="P54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16">
+      <c r="B61" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16">
+      <c r="P64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="16:16">
+      <c r="P65" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="16:16">
+      <c r="P72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="16:16">
+      <c r="P74" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="16:16">
+      <c r="P75" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="16:16">
+      <c r="P77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="19:19">
+      <c r="S84" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="19:19">
+      <c r="S87" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="19:19">
+      <c r="S88" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="19:19">
+      <c r="S93" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94" spans="19:19">
+      <c r="S94" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/railcom debug scope traces.xlsx
+++ b/railcom debug scope traces.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Documents\Arduino\DCC_ESP_Controller_wRailcom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4093C2ED-8716-42FF-BFC5-E10B9E86B760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B813785E-6CC8-4C58-87C0-96D2C93E3685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="L298 problem" sheetId="2" r:id="rId2"/>
     <sheet name="buffer" sheetId="3" r:id="rId3"/>
+    <sheet name="revisit 29th" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="234">
   <si>
     <t>The cutout is occuring at the end of the idle packet</t>
   </si>
@@ -522,6 +523,213 @@
   </si>
   <si>
     <t>or the comparator has a problem….</t>
+  </si>
+  <si>
+    <t>They are driven by edges in the DCC signal</t>
+  </si>
+  <si>
+    <t>This is a trace with no load on track</t>
+  </si>
+  <si>
+    <t>With 120R track load, there are fewer spikes, but they are still present.  The load does not improve the performance of the decoder.</t>
+  </si>
+  <si>
+    <t>but with a load, we do see the output mostly sit low, which is what you expect as both polarities across</t>
+  </si>
+  <si>
+    <t>the sense resistor are declaring that current is flowing, except for a very short spike period.</t>
+  </si>
+  <si>
+    <t>with a load on the track the decoder fails to read.  That's really odd.</t>
+  </si>
+  <si>
+    <t>The comparator drive is around +/- 0.8v and its clamped by the detector diodes</t>
+  </si>
+  <si>
+    <t>I also fed it through a 3k resistor into the comparator, but that did not help.</t>
+  </si>
+  <si>
+    <t>I thought perhaps the comparator inputs  were overdriven, but no.</t>
+  </si>
+  <si>
+    <t>Pin 7 on the 6n137 is a strobe, pull low to force the output high (disable).</t>
+  </si>
+  <si>
+    <t>I can tie this to the RC cutout flag bit and see if this kills off the spurious rs232 crap</t>
+  </si>
+  <si>
+    <t>as the serial will only be enabled during an RC cutout.</t>
+  </si>
+  <si>
+    <t>Rev 3 red PCB, no load</t>
+  </si>
+  <si>
+    <t>and with load</t>
+  </si>
+  <si>
+    <t>There is very little noise, and certainly no spikes as you see on the blue board.  Yet both are using an LMD and LM319</t>
+  </si>
+  <si>
+    <t>and the red board only has one decouple cap between 5v and gnd, nothing on the negative supply.</t>
+  </si>
+  <si>
+    <t>bias resistors are similar values.</t>
+  </si>
+  <si>
+    <t>With the red board, the detector output will swing between system ground and +3v clamped.  Its also clamped at 0.6v negative.</t>
+  </si>
+  <si>
+    <t>and with no load, when its 3v then comparator 2 will go low.   When its 0v then neither comparator fires and so the output will go high.</t>
+  </si>
+  <si>
+    <t>when a load is present, and out2 is zero V, there will be a +ve drop across R1</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>and so c2 will stay low</t>
+  </si>
+  <si>
+    <t>during both half cycles.  This is why the output stays low until the RC cutout.  At that point, there is no current in the loop and both comparators will</t>
+  </si>
+  <si>
+    <t xml:space="preserve">go high. </t>
+  </si>
+  <si>
+    <t>Compare this to the blue PCB.  It stays high all the time with no load.  This implies that neither comparator is conducting.  I suppose that makes sense,</t>
+  </si>
+  <si>
+    <t>because there's a small load of 20mA from the decoder, but this only develops</t>
+  </si>
+  <si>
+    <t>mV</t>
+  </si>
+  <si>
+    <t>But that said, this should be sufficient to trigger both</t>
+  </si>
+  <si>
+    <t>comparators.    When the load increases, they do both conduct and the output stays low.   But there is still a lot of noise on that line and I cannot figure out why.</t>
+  </si>
+  <si>
+    <t>Its actually present on the comparator output, i.e. before the opto isolator.</t>
+  </si>
+  <si>
+    <t>Out2 is effectively the X-2 line</t>
+  </si>
+  <si>
+    <t>The +ve supply side is identical to the reference circiut</t>
+  </si>
+  <si>
+    <t>D1, C1 and the regulator.  Ok I have 103 doe C5 which is 10n rather than 100n</t>
+  </si>
+  <si>
+    <t>[I would be amazed if that fixes it]</t>
+  </si>
+  <si>
+    <t>c2 is the same 100uF and then 100n decoupler on the IC supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my neg supply line is same.  D2,R4,C4 form a half wave rectifier. </t>
+  </si>
+  <si>
+    <t>Then I use an LED to generate a neg 1.6v supply at relatively low impedence.</t>
+  </si>
+  <si>
+    <t>This feeds pin6, and is well below the expected negative peaks across R1.</t>
+  </si>
+  <si>
+    <t>If out2 (i.e. X2) = X1 then the RC cutout is active.  The loop current will either appear</t>
+  </si>
+  <si>
+    <t>as +ve or -ve across R1.</t>
+  </si>
+  <si>
+    <t>If its +ve (i.e. right side more pos than left) then comparator 2 will go low if the p.d. exceeds</t>
+  </si>
+  <si>
+    <t>the +18mV ref on R8.</t>
+  </si>
+  <si>
+    <t>If its -ve (i.e. left side more pos) then C1 will go low If in1+ is more negative than the -18mV</t>
+  </si>
+  <si>
+    <t>ref on R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But this does not explain why we are seeing spikes. It implies there is zero loop current flowing for </t>
+  </si>
+  <si>
+    <t>a few nS during edges.  This is a true situation, and perhaps the comparator is "too fast"</t>
+  </si>
+  <si>
+    <t>Yet we don't see this spike problem with the red circuit.</t>
+  </si>
+  <si>
+    <t>One option is to add +ve feedback from the output.  But it has to feed into both input2+</t>
+  </si>
+  <si>
+    <t>and input1+ (but in1+ is wired to in2-)</t>
+  </si>
+  <si>
+    <t>Use a 393?  If I do so, I would be hooking into the -ve supply rail and not using the gnd ref.</t>
+  </si>
+  <si>
+    <t>The blue light keeps going out on the module.   Is this the SDA line?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUT if we have a 120R load, why does this kill all comms?  It will consume some of the loop current, but </t>
+  </si>
+  <si>
+    <t>not much compared to the 1.8R that the drive circuit sees.</t>
+  </si>
+  <si>
+    <t>on this, if X1-1 is more pos than X2-2 then</t>
+  </si>
+  <si>
+    <t>if pin7 goves above pin 6 then the comparator goes high</t>
+  </si>
+  <si>
+    <t>meanwhile pin 4 is much higher than pin 5 and that comp is low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAND only goes low if both inputs are high.   </t>
+  </si>
+  <si>
+    <t>i.e. it’s a 120 in parallel with 1.8 and the majority of the current will still be thro the 1.8</t>
+  </si>
+  <si>
+    <t>:30/11/2024</t>
+  </si>
+  <si>
+    <t>FINALLY</t>
+  </si>
+  <si>
+    <t>After a full day of tests.  The blue board needs two fixes</t>
+  </si>
+  <si>
+    <t>1/ C7 is open circuit.  Its open end should be connected to the LM319 pin 3.</t>
+  </si>
+  <si>
+    <t>2/ Add a 10nF cap across the regulator input.  This cuts down on noise in the circuit.</t>
+  </si>
+  <si>
+    <t>And the findings were.</t>
+  </si>
+  <si>
+    <t>External LMD18200, but not using the brake pin.   Just does not work.  Wasted hours on this.</t>
+  </si>
+  <si>
+    <t>External L298 works, but is most reliable if there is a load on the track.  A lack of load means the Opto output stays high mostly and has a lot of noise spikes.</t>
+  </si>
+  <si>
+    <t>External IBT2 works well with a load and with no load.  It always reads accurately.</t>
+  </si>
+  <si>
+    <t>Last test would be to use the LMD with an active brake pin.   The load was 120R</t>
+  </si>
+  <si>
+    <t>Note that the red board works reliably with the resistor values set, with load/ not.</t>
   </si>
 </sst>
 </file>
@@ -1237,6 +1445,407 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10377</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92DC3B7-FFD9-510D-A373-D48D11FECC40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="6106377" cy="2400635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>467386</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24132FB3-BCF9-51C6-62C5-A894CB2FF2EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3048000"/>
+          <a:ext cx="4734586" cy="2505425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495880</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{454205A0-7BBB-BF82-E187-AC67BE6F7C1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6096000"/>
+          <a:ext cx="4153480" cy="2400635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>67256</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114553</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E4310C2-A499-2814-C44F-352C4D624F87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5657850" y="6305550"/>
+          <a:ext cx="4163006" cy="1810003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>162373</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>86095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06095C80-C4B0-BEA0-4CB5-B3969F551D15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9820275"/>
+          <a:ext cx="3210373" cy="2648320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114826</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38395</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6030591F-EDEB-6906-65A0-E9AB66618691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13163550"/>
+          <a:ext cx="3772426" cy="2114845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>511</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>57424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE4032C-8C05-E274-948A-81CFD7CBC5DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="13335000"/>
+          <a:ext cx="3658111" cy="1962424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>77232</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>114795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC99766A-D334-C715-A94C-B0FDB276FCF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="18859500"/>
+          <a:ext cx="7392432" cy="3543795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>582382</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{688AC667-EADA-2283-409D-03CEF512B171}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="22669500"/>
+          <a:ext cx="9726382" cy="5334744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2259,7 +2868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFDFF72-3A6E-47A3-A910-0EA87568521B}">
   <dimension ref="B2:S94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="S94" sqref="S94"/>
     </sheetView>
   </sheetViews>
@@ -2403,4 +3012,359 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82687D6F-F4CB-4AF2-AE3D-DC659FC10944}">
+  <dimension ref="B18:S165"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="18" spans="2:12">
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="J44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="J45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="8:11">
+      <c r="H53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="8:11">
+      <c r="H55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="8:11">
+      <c r="H56" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="8:11">
+      <c r="K59" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="8:11">
+      <c r="K60" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="8:11">
+      <c r="K61" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" t="s">
+        <v>177</v>
+      </c>
+      <c r="J69" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12">
+      <c r="B83" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12">
+      <c r="B84" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12">
+      <c r="B85" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12">
+      <c r="B87" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12">
+      <c r="B88" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12">
+      <c r="B90" t="s">
+        <v>184</v>
+      </c>
+      <c r="J90">
+        <f>0.1*1.8</f>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="K90" t="s">
+        <v>185</v>
+      </c>
+      <c r="L90" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12">
+      <c r="B91" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12">
+      <c r="B92" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12">
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12">
+      <c r="B96" t="s">
+        <v>190</v>
+      </c>
+      <c r="J96">
+        <f>1.8*20</f>
+        <v>36</v>
+      </c>
+      <c r="K96" t="s">
+        <v>191</v>
+      </c>
+      <c r="L96" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="2:17">
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17">
+      <c r="B98" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="2:17">
+      <c r="Q102" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="103" spans="2:17">
+      <c r="Q103" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="2:17">
+      <c r="Q104" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="2:17">
+      <c r="Q105" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="120" spans="19:19">
+      <c r="S120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="19:19">
+      <c r="S121" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="122" spans="19:19">
+      <c r="S122" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="123" spans="19:19">
+      <c r="S123" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="124" spans="19:19">
+      <c r="S124" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="126" spans="19:19">
+      <c r="S126" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="19:19">
+      <c r="S127" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="128" spans="19:19">
+      <c r="S128" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="130" spans="19:19">
+      <c r="S130" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="131" spans="19:19">
+      <c r="S131" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="133" spans="19:19">
+      <c r="S133" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="134" spans="19:19">
+      <c r="S134" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="136" spans="19:19">
+      <c r="S136" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="137" spans="19:19">
+      <c r="S137" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="139" spans="19:19">
+      <c r="S139" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="140" spans="19:19">
+      <c r="S140" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="141" spans="19:19">
+      <c r="S141" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="143" spans="19:19">
+      <c r="S143" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="144" spans="19:19">
+      <c r="S144" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="146" spans="2:19">
+      <c r="S146" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="148" spans="2:19">
+      <c r="S148" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="149" spans="2:19">
+      <c r="B149" t="s">
+        <v>215</v>
+      </c>
+      <c r="S149" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="150" spans="2:19">
+      <c r="S150" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="153" spans="2:19">
+      <c r="B153" t="s">
+        <v>223</v>
+      </c>
+      <c r="D153" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="154" spans="2:19">
+      <c r="B154" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="155" spans="2:19">
+      <c r="B155" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="156" spans="2:19">
+      <c r="B156" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="158" spans="2:19">
+      <c r="B158" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="159" spans="2:19">
+      <c r="C159" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="160" spans="2:19">
+      <c r="C160" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="C161" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3">
+      <c r="C163" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>